--- a/datalin/data/nodes_dv_tables.xlsx
+++ b/datalin/data/nodes_dv_tables.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="825" windowWidth="27255" windowHeight="12435"/>
+    <workbookView xWindow="870" yWindow="885" windowWidth="18270" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23536,7 +23536,7 @@
   <dimension ref="A1:E3859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89153,5 +89153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>